--- a/data_status.xlsx
+++ b/data_status.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACC-PSAK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Pro-Psak\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291975EC-2ECA-485D-BAAA-1F99749B81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="2775"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -29,41 +30,68 @@
     <t>NoPin</t>
   </si>
   <si>
-    <t>NoRek</t>
-  </si>
-  <si>
     <t>AccountSts</t>
   </si>
   <si>
-    <t>AccountName</t>
-  </si>
-  <si>
     <t>0320002029</t>
   </si>
   <si>
-    <t>032.2029</t>
-  </si>
-  <si>
-    <t>BANI ELKIS</t>
-  </si>
-  <si>
     <t>0320002041</t>
   </si>
   <si>
-    <t>032.2041</t>
-  </si>
-  <si>
-    <t>PONIMAN</t>
-  </si>
-  <si>
-    <t>CLOSED - REPOSES</t>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>CLOSED - REGULER</t>
+  </si>
+  <si>
+    <t>0010008956</t>
+  </si>
+  <si>
+    <t>0320002052</t>
+  </si>
+  <si>
+    <t>0450002380</t>
+  </si>
+  <si>
+    <t>0500006437</t>
+  </si>
+  <si>
+    <t>0030006614</t>
+  </si>
+  <si>
+    <t>0400004909</t>
+  </si>
+  <si>
+    <t>0060012241</t>
+  </si>
+  <si>
+    <t>0060012564</t>
+  </si>
+  <si>
+    <t>0450002488</t>
+  </si>
+  <si>
+    <t>0700001567</t>
+  </si>
+  <si>
+    <t>0050012007</t>
+  </si>
+  <si>
+    <t>0050012187</t>
+  </si>
+  <si>
+    <t>0030006753</t>
+  </si>
+  <si>
+    <t>APPDate (dd/mm/YYYY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +110,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,17 +164,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -260,6 +284,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -295,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,82 +528,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.5703125" style="7"/>
+    <col min="2" max="2" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="4.54296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -553,24 +736,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
